--- a/Data/ROY Data/roy_98_99.xlsx
+++ b/Data/ROY Data/roy_98_99.xlsx
@@ -97,7 +97,7 @@
     <t>BOS</t>
   </si>
   <si>
-    <t>1997-98</t>
+    <t>1998-99</t>
   </si>
 </sst>
 </file>
